--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_757.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_757.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33125-d82231-Reviews-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>69</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-The-Dixie-Orange-County.h436203.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_757.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_757.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,874 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r554985891-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>33125</t>
+  </si>
+  <si>
+    <t>82231</t>
+  </si>
+  <si>
+    <t>554985891</t>
+  </si>
+  <si>
+    <t>01/20/2018</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>For the price I wasn’t expecting much. Based on the photos I saw prior to checking TripAdvisor I figured I’d be ok. I was wrong.
+The area is really run down and turns out not very safe. All night long there were sirens and one night someone fighting outside. 
+My hopes were high since I am a fan of older era motels. The look and style is my thing and as long as it’s clean in the sleeping area I do not complain or expect much. Pulling in and seeing the newer bright orange sign I mistakenly thought we’d be in for a decent stay. I again, was wrong. 
+I checked in very quickly through a small window at 1:00 a.m. Saturday morning. The young lady that helped me was fast and as pleasant as one could expect at the hour. She gave me room 216, on the second level. Parking was huge, sort of dark and there is no elevator. 
+Room 216 at first glance was pretty clean but has no couch and the cot they supplied was pretty old and in terrible shape. The room was not prepared for 5 ppl and we were asked to meet the gal at the back door and take the cot up the stairs. The linen was stained w what looked like old blood on one bed and the towels were pretty old. Nobody ever came in to change it after I...For the price I wasn’t expecting much. Based on the photos I saw prior to checking TripAdvisor I figured I’d be ok. I was wrong.The area is really run down and turns out not very safe. All night long there were sirens and one night someone fighting outside. My hopes were high since I am a fan of older era motels. The look and style is my thing and as long as it’s clean in the sleeping area I do not complain or expect much. Pulling in and seeing the newer bright orange sign I mistakenly thought we’d be in for a decent stay. I again, was wrong. I checked in very quickly through a small window at 1:00 a.m. Saturday morning. The young lady that helped me was fast and as pleasant as one could expect at the hour. She gave me room 216, on the second level. Parking was huge, sort of dark and there is no elevator. Room 216 at first glance was pretty clean but has no couch and the cot they supplied was pretty old and in terrible shape. The room was not prepared for 5 ppl and we were asked to meet the gal at the back door and take the cot up the stairs. The linen was stained w what looked like old blood on one bed and the towels were pretty old. Nobody ever came in to change it after I asked twice. We made it work by covering the entire bed w extra sheets we got the next morning. The beds are very old and springy, with large dips in the center of both. The fridge and micro was clean. WiFi was ok. Nothing smelled weird and the pillows were pretty great (the kindly provided us w extras too!). We did not try the continental breakfast. Our restroom was pretty tight but clean. Shampoo, lotion and soap was included. The shower was old and water temp finicky. We noticed the pool, we didn’t use was much smaller (but clean) than the photos indicate, kudos to the management photographer cause we were thoroughly fooled. I can’t say I’d return since it was such an uncomfortable stay and I may need bloodwork from all the stains I encountered but if your wife has kicked you out and all you have is a few bucks and a Disney pass check this place. Disneyland is a 15 min drive and Knotts about 10. The photos posted are before we discovered the blood. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Dixie H, Guest Relations Manager at Dixie Orange County Hotel, responded to this reviewResponded February 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2018</t>
+  </si>
+  <si>
+    <t>For the price I wasn’t expecting much. Based on the photos I saw prior to checking TripAdvisor I figured I’d be ok. I was wrong.
+The area is really run down and turns out not very safe. All night long there were sirens and one night someone fighting outside. 
+My hopes were high since I am a fan of older era motels. The look and style is my thing and as long as it’s clean in the sleeping area I do not complain or expect much. Pulling in and seeing the newer bright orange sign I mistakenly thought we’d be in for a decent stay. I again, was wrong. 
+I checked in very quickly through a small window at 1:00 a.m. Saturday morning. The young lady that helped me was fast and as pleasant as one could expect at the hour. She gave me room 216, on the second level. Parking was huge, sort of dark and there is no elevator. 
+Room 216 at first glance was pretty clean but has no couch and the cot they supplied was pretty old and in terrible shape. The room was not prepared for 5 ppl and we were asked to meet the gal at the back door and take the cot up the stairs. The linen was stained w what looked like old blood on one bed and the towels were pretty old. Nobody ever came in to change it after I...For the price I wasn’t expecting much. Based on the photos I saw prior to checking TripAdvisor I figured I’d be ok. I was wrong.The area is really run down and turns out not very safe. All night long there were sirens and one night someone fighting outside. My hopes were high since I am a fan of older era motels. The look and style is my thing and as long as it’s clean in the sleeping area I do not complain or expect much. Pulling in and seeing the newer bright orange sign I mistakenly thought we’d be in for a decent stay. I again, was wrong. I checked in very quickly through a small window at 1:00 a.m. Saturday morning. The young lady that helped me was fast and as pleasant as one could expect at the hour. She gave me room 216, on the second level. Parking was huge, sort of dark and there is no elevator. Room 216 at first glance was pretty clean but has no couch and the cot they supplied was pretty old and in terrible shape. The room was not prepared for 5 ppl and we were asked to meet the gal at the back door and take the cot up the stairs. The linen was stained w what looked like old blood on one bed and the towels were pretty old. Nobody ever came in to change it after I asked twice. We made it work by covering the entire bed w extra sheets we got the next morning. The beds are very old and springy, with large dips in the center of both. The fridge and micro was clean. WiFi was ok. Nothing smelled weird and the pillows were pretty great (the kindly provided us w extras too!). We did not try the continental breakfast. Our restroom was pretty tight but clean. Shampoo, lotion and soap was included. The shower was old and water temp finicky. We noticed the pool, we didn’t use was much smaller (but clean) than the photos indicate, kudos to the management photographer cause we were thoroughly fooled. I can’t say I’d return since it was such an uncomfortable stay and I may need bloodwork from all the stains I encountered but if your wife has kicked you out and all you have is a few bucks and a Disney pass check this place. Disneyland is a 15 min drive and Knotts about 10. The photos posted are before we discovered the blood. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r548053021-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>548053021</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t>VERY RUDE AND UNPROFESSIONAL</t>
+  </si>
+  <si>
+    <t>I have stayed here in the passed and it was okay besides the time my children were taking a bath and water was coming out of the ceiling light in the bathroom right into the tub, This time I booked my room like 3 weeks in advance for them to call me 2 hours before check in and tell me that my reservations were cancelled. I explain to her I am suppose to be checking in in 2 hours with children and now what to do. Lady at the desk said o well I'm sorry there is nothing we can do for you,  I asked to rent another room very rudely she replied no I don't have none available. I will never stay at this place again due to them being so unprofessional and very rude, BEWARE YOU MIGHT NOT HAVE A ROOM TO STAY IN..............MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Dixie H, Public Relations Manager at Dixie Orange County Hotel, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed here in the passed and it was okay besides the time my children were taking a bath and water was coming out of the ceiling light in the bathroom right into the tub, This time I booked my room like 3 weeks in advance for them to call me 2 hours before check in and tell me that my reservations were cancelled. I explain to her I am suppose to be checking in in 2 hours with children and now what to do. Lady at the desk said o well I'm sorry there is nothing we can do for you,  I asked to rent another room very rudely she replied no I don't have none available. I will never stay at this place again due to them being so unprofessional and very rude, BEWARE YOU MIGHT NOT HAVE A ROOM TO STAY IN..............More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r547608692-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>547608692</t>
+  </si>
+  <si>
+    <t>12/16/2017</t>
+  </si>
+  <si>
+    <t>Cross country road trip</t>
+  </si>
+  <si>
+    <t>My family and I were embarking on a cross country road trip and needed a hotel to spend the night in that was close to the Best Times RV Depot as we were renting a camper from them for it.  We booked two rooms at this location to stay the first night of our trip and the last.  Upon arriving, we checked in and got room keys for two rooms. We requested at least 1 room downstairs for my mother who can't do stairs and they were able to accommodate us. We unloaded our luggage into her room and due to some unrelated issues, we weren't able to go check the room we had gotten keys for upstairs.  We returned later that night, grabbed some luggage from the downstairs room and walked up the stairs, double checked the room number and used our key to enter, however, upon opening the door, it was locked from the inside and someone was very startled inside.  We quickly retreated to the lobby.  The people we startled had already called the lobby. At this pint, the gentleman that checked us in was no longer on shift.  The employee working, apologized and put us in one of their Air B&amp;B suites.  He said it appeared the employee earlier had checked me in, checked me out, and checked the other party in.  The employee who helped us was Tyler and I want to make sure management...My family and I were embarking on a cross country road trip and needed a hotel to spend the night in that was close to the Best Times RV Depot as we were renting a camper from them for it.  We booked two rooms at this location to stay the first night of our trip and the last.  Upon arriving, we checked in and got room keys for two rooms. We requested at least 1 room downstairs for my mother who can't do stairs and they were able to accommodate us. We unloaded our luggage into her room and due to some unrelated issues, we weren't able to go check the room we had gotten keys for upstairs.  We returned later that night, grabbed some luggage from the downstairs room and walked up the stairs, double checked the room number and used our key to enter, however, upon opening the door, it was locked from the inside and someone was very startled inside.  We quickly retreated to the lobby.  The people we startled had already called the lobby. At this pint, the gentleman that checked us in was no longer on shift.  The employee working, apologized and put us in one of their Air B&amp;B suites.  He said it appeared the employee earlier had checked me in, checked me out, and checked the other party in.  The employee who helped us was Tyler and I want to make sure management knows how valuable he is.  He handled everything and made sure we were taken care of. I feel bad for the people we startled awake though.  Tyler said that management would call us by 10am the next day but we never got a call. A call would have been nice after what had happened.  The rooms were ok. They are fairly large.  The water in our bath was very dirty and colored.  Gross!  We opted to not shower that night. A party was clearly happening right below us and was loud.  People were in the lobby complaining and Tyler dealt with that as well.   We were able to get a decent nights sleep and left early the next morning.  Because of the issues, we tried to find a different hotel to stay in for the return trip but couldn't find anything so we ended up there again.  This time, nothing major happened, however, the air/heating units were leaking from most rooms and the TV service was also out in both of our rooms as well as others as people were complaining about it as well.  The lobby furniture is pretty dirty.  Breakfast consisted for cereal, juice, milk and a few pastry options none of which I would have eaten given the condition of the lobby. We wouldn't frequent this hotel but if you are looking for a budget motel in that area, it works.  Thank you to Tyler again for his help!  If this was based on him along, it would be 5 stars for service.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Dixie H, Guest Relations Manager at Dixie Orange County Hotel, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>My family and I were embarking on a cross country road trip and needed a hotel to spend the night in that was close to the Best Times RV Depot as we were renting a camper from them for it.  We booked two rooms at this location to stay the first night of our trip and the last.  Upon arriving, we checked in and got room keys for two rooms. We requested at least 1 room downstairs for my mother who can't do stairs and they were able to accommodate us. We unloaded our luggage into her room and due to some unrelated issues, we weren't able to go check the room we had gotten keys for upstairs.  We returned later that night, grabbed some luggage from the downstairs room and walked up the stairs, double checked the room number and used our key to enter, however, upon opening the door, it was locked from the inside and someone was very startled inside.  We quickly retreated to the lobby.  The people we startled had already called the lobby. At this pint, the gentleman that checked us in was no longer on shift.  The employee working, apologized and put us in one of their Air B&amp;B suites.  He said it appeared the employee earlier had checked me in, checked me out, and checked the other party in.  The employee who helped us was Tyler and I want to make sure management...My family and I were embarking on a cross country road trip and needed a hotel to spend the night in that was close to the Best Times RV Depot as we were renting a camper from them for it.  We booked two rooms at this location to stay the first night of our trip and the last.  Upon arriving, we checked in and got room keys for two rooms. We requested at least 1 room downstairs for my mother who can't do stairs and they were able to accommodate us. We unloaded our luggage into her room and due to some unrelated issues, we weren't able to go check the room we had gotten keys for upstairs.  We returned later that night, grabbed some luggage from the downstairs room and walked up the stairs, double checked the room number and used our key to enter, however, upon opening the door, it was locked from the inside and someone was very startled inside.  We quickly retreated to the lobby.  The people we startled had already called the lobby. At this pint, the gentleman that checked us in was no longer on shift.  The employee working, apologized and put us in one of their Air B&amp;B suites.  He said it appeared the employee earlier had checked me in, checked me out, and checked the other party in.  The employee who helped us was Tyler and I want to make sure management knows how valuable he is.  He handled everything and made sure we were taken care of. I feel bad for the people we startled awake though.  Tyler said that management would call us by 10am the next day but we never got a call. A call would have been nice after what had happened.  The rooms were ok. They are fairly large.  The water in our bath was very dirty and colored.  Gross!  We opted to not shower that night. A party was clearly happening right below us and was loud.  People were in the lobby complaining and Tyler dealt with that as well.   We were able to get a decent nights sleep and left early the next morning.  Because of the issues, we tried to find a different hotel to stay in for the return trip but couldn't find anything so we ended up there again.  This time, nothing major happened, however, the air/heating units were leaking from most rooms and the TV service was also out in both of our rooms as well as others as people were complaining about it as well.  The lobby furniture is pretty dirty.  Breakfast consisted for cereal, juice, milk and a few pastry options none of which I would have eaten given the condition of the lobby. We wouldn't frequent this hotel but if you are looking for a budget motel in that area, it works.  Thank you to Tyler again for his help!  If this was based on him along, it would be 5 stars for service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r517848702-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>517848702</t>
+  </si>
+  <si>
+    <t>08/26/2017</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>It's cheap and on the affordable side. The gentleman who checked us in was very nice and helped us when our key didn't work. However, when we checked in the trash wasn't taken out, barely any toilet paper and the floors were dirty. Our feet were turning so dark from the ground I couldn't believe it. I must've been checked into a dirty room... I had a reservation for two days but I just couldn't do it.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Dixie H, Guest Relations Manager at Dixie Orange County Hotel, responded to this reviewResponded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>It's cheap and on the affordable side. The gentleman who checked us in was very nice and helped us when our key didn't work. However, when we checked in the trash wasn't taken out, barely any toilet paper and the floors were dirty. Our feet were turning so dark from the ground I couldn't believe it. I must've been checked into a dirty room... I had a reservation for two days but I just couldn't do it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r505259487-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>505259487</t>
+  </si>
+  <si>
+    <t>07/24/2017</t>
+  </si>
+  <si>
+    <t>Too Shabby, Poor Service</t>
+  </si>
+  <si>
+    <t>Positive:Room was clean and not noisy. Beds were clean and comfortable. The location is about 15 minutes from Disneyland. It has a big parking lot. The front desk was friendly.  Negative:The Internet connection is totally useless. The connection interrupts every second and if you get a connection, the speed is so slow that it is almost impossible to do anything.The shower had a shabby and very short curtain. After a 5 minute shower, water is all over the bathroom and runs over the floor to the room. There were no chairs and no table in the room.The breakfast was very poor. There were only some small pastries, yogurt. No milk, no juice, no cereals, no breads, no butter, no cream cheese. They had packaged oatmeal but not on the desk. I had to ask for it every time and the front desk employee (manager) had to take one out of the cabinet and put on my hand.There were only three highchairs to seat which is really uncomfortable for breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Dixie H, Guest Relations Manager at Dixie Orange County Hotel, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Positive:Room was clean and not noisy. Beds were clean and comfortable. The location is about 15 minutes from Disneyland. It has a big parking lot. The front desk was friendly.  Negative:The Internet connection is totally useless. The connection interrupts every second and if you get a connection, the speed is so slow that it is almost impossible to do anything.The shower had a shabby and very short curtain. After a 5 minute shower, water is all over the bathroom and runs over the floor to the room. There were no chairs and no table in the room.The breakfast was very poor. There were only some small pastries, yogurt. No milk, no juice, no cereals, no breads, no butter, no cream cheese. They had packaged oatmeal but not on the desk. I had to ask for it every time and the front desk employee (manager) had to take one out of the cabinet and put on my hand.There were only three highchairs to seat which is really uncomfortable for breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r503339473-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>503339473</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>OK for the price</t>
+  </si>
+  <si>
+    <t>Very basic, not even a chair in the room, the phone was broken at the cord where it inserts into the phone, advised management but nothing was done about it.  No safety lock on the door, old furniture, there was a fridge and microwave.  Towels were small and thin, breakfast was laughable, horrid cheap danish"s and sugar laden bars, only the very early birds would get fruit. The location suited us for the 4 days we were there but that was about all.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Dixie H, Public Relations Manager at Dixie Orange County Hotel, responded to this reviewResponded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Very basic, not even a chair in the room, the phone was broken at the cord where it inserts into the phone, advised management but nothing was done about it.  No safety lock on the door, old furniture, there was a fridge and microwave.  Towels were small and thin, breakfast was laughable, horrid cheap danish"s and sugar laden bars, only the very early birds would get fruit. The location suited us for the 4 days we were there but that was about all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r462723742-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>462723742</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Family Time</t>
+  </si>
+  <si>
+    <t>Spending time with family and on a new job. Apples is a sweetheart and helpful at the front desk to check us in. Housekeeping was very nice and all smiles. Our 2 bed room we rented was very nice and beds were comfy. I love the no smoking in rooms or by the building  ( parking lot smoking ) I do smoke also but never indoors, so the room was fresh smelling not like an ashtray even if rooms say smoke free they still carry that tinge smell of cigs. Fridge and microwave is so convenient, fast food everyday is a no go for me, so a few frozen meals are good here and there also. Pool looka great but its way too cold for a dip at this time. The other rooms are quite since we have been here and that's a plus. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Spending time with family and on a new job. Apples is a sweetheart and helpful at the front desk to check us in. Housekeeping was very nice and all smiles. Our 2 bed room we rented was very nice and beds were comfy. I love the no smoking in rooms or by the building  ( parking lot smoking ) I do smoke also but never indoors, so the room was fresh smelling not like an ashtray even if rooms say smoke free they still carry that tinge smell of cigs. Fridge and microwave is so convenient, fast food everyday is a no go for me, so a few frozen meals are good here and there also. Pool looka great but its way too cold for a dip at this time. The other rooms are quite since we have been here and that's a plus. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r453292370-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>453292370</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Comfortable, Relax Area, Everything in room 122 is great for the value of price</t>
+  </si>
+  <si>
+    <t>It was great for my family to be thereHowever, the staff couldn't help much, not even a can opener can be provided. Except 1 skinny pretty girl called Apples, she tried to help us positively.Best price motel in Orange CountryMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>It was great for my family to be thereHowever, the staff couldn't help much, not even a can opener can be provided. Except 1 skinny pretty girl called Apples, she tried to help us positively.Best price motel in Orange CountryMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r448699721-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>448699721</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>Good Motel but my room wasn't that clean</t>
+  </si>
+  <si>
+    <t>I was surprised, it was a lot better than the filthy (FILTHY) motel 6 and la quinta inns I've been in. The room was actually nice. Well, for the record, I think their normal rates are 120$ a night, but I got an express deal for 60$ a night.
+There are water damages. Understandable, since maybe some college students partied hard before. I won't take it against them. The bathroom floors and main table have water damages. It's fine, I don't mind that.
+What I do mind however, is that it felt like my room had been rushed cleaned. I don't even think my sheets have been changed!! The main room itself is nice but the cleanable things have been rushed. 
+Maybe it's because it's the last room and the cleaning ladies were trying to make it before the 3pm check in time, and they took a lot of short cuts. But I wish my sheets have been changed (it was stinky, like somebody slept in it before) and the bathroom still had a bunch of gunks that weren't cleaned.
+Before you say anything, I am NOT a neat freak. I am an ordinary guy living in a very disorganized house (not neat at all), my tolerance for filth is high (lol). But yeah, you can gauge how stinky the sheets were coming from a slovenly, untidy guy like me.
+3 stars because I'd like to think the cleaning ladies...I was surprised, it was a lot better than the filthy (FILTHY) motel 6 and la quinta inns I've been in. The room was actually nice. Well, for the record, I think their normal rates are 120$ a night, but I got an express deal for 60$ a night.There are water damages. Understandable, since maybe some college students partied hard before. I won't take it against them. The bathroom floors and main table have water damages. It's fine, I don't mind that.What I do mind however, is that it felt like my room had been rushed cleaned. I don't even think my sheets have been changed!! The main room itself is nice but the cleanable things have been rushed. Maybe it's because it's the last room and the cleaning ladies were trying to make it before the 3pm check in time, and they took a lot of short cuts. But I wish my sheets have been changed (it was stinky, like somebody slept in it before) and the bathroom still had a bunch of gunks that weren't cleaned.Before you say anything, I am NOT a neat freak. I am an ordinary guy living in a very disorganized house (not neat at all), my tolerance for filth is high (lol). But yeah, you can gauge how stinky the sheets were coming from a slovenly, untidy guy like me.3 stars because I'd like to think the cleaning ladies just had an off day. Maybe they were just extra tired that day and they took short cuts. Cross fingers.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded January 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2017</t>
+  </si>
+  <si>
+    <t>I was surprised, it was a lot better than the filthy (FILTHY) motel 6 and la quinta inns I've been in. The room was actually nice. Well, for the record, I think their normal rates are 120$ a night, but I got an express deal for 60$ a night.
+There are water damages. Understandable, since maybe some college students partied hard before. I won't take it against them. The bathroom floors and main table have water damages. It's fine, I don't mind that.
+What I do mind however, is that it felt like my room had been rushed cleaned. I don't even think my sheets have been changed!! The main room itself is nice but the cleanable things have been rushed. 
+Maybe it's because it's the last room and the cleaning ladies were trying to make it before the 3pm check in time, and they took a lot of short cuts. But I wish my sheets have been changed (it was stinky, like somebody slept in it before) and the bathroom still had a bunch of gunks that weren't cleaned.
+Before you say anything, I am NOT a neat freak. I am an ordinary guy living in a very disorganized house (not neat at all), my tolerance for filth is high (lol). But yeah, you can gauge how stinky the sheets were coming from a slovenly, untidy guy like me.
+3 stars because I'd like to think the cleaning ladies...I was surprised, it was a lot better than the filthy (FILTHY) motel 6 and la quinta inns I've been in. The room was actually nice. Well, for the record, I think their normal rates are 120$ a night, but I got an express deal for 60$ a night.There are water damages. Understandable, since maybe some college students partied hard before. I won't take it against them. The bathroom floors and main table have water damages. It's fine, I don't mind that.What I do mind however, is that it felt like my room had been rushed cleaned. I don't even think my sheets have been changed!! The main room itself is nice but the cleanable things have been rushed. Maybe it's because it's the last room and the cleaning ladies were trying to make it before the 3pm check in time, and they took a lot of short cuts. But I wish my sheets have been changed (it was stinky, like somebody slept in it before) and the bathroom still had a bunch of gunks that weren't cleaned.Before you say anything, I am NOT a neat freak. I am an ordinary guy living in a very disorganized house (not neat at all), my tolerance for filth is high (lol). But yeah, you can gauge how stinky the sheets were coming from a slovenly, untidy guy like me.3 stars because I'd like to think the cleaning ladies just had an off day. Maybe they were just extra tired that day and they took short cuts. Cross fingers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r435126081-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>435126081</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Knights Inn tried  to Cancel my reservation to charge someone else a higher rate</t>
+  </si>
+  <si>
+    <t>I made reservations for my techs that were working in the area and needed a hotel close to where our job was located at.  The hotel called me to tell me that they had a problem with my credit card, which I took care of right away, then told me that they only had one room left which they could sell for a higher rate and since I was not with my techs they could not check in.  I told the nice person on the phone that they had their own company credit cards and could take care of the bill themselves.  She called me back and said that the manager Carl said no we had to send copies of our ID's fill out paperwork and fax it back.  Where I am located it is a two hour time difference.  I explained to the gal on the phone if I could please talk to Carl the manager that I was having a dinner party and I would like to get this taken care of quickly.  None of that happened.  It was almost 3 hours of phone calls back and forth.  I am a member of the hotel chain club, never have ever experienced such bad management communication.  Not only did Carl ruin my dinner party, but also made sure that they were placed in the wrong room that we had booked.  All over GREED of selling the room that we...I made reservations for my techs that were working in the area and needed a hotel close to where our job was located at.  The hotel called me to tell me that they had a problem with my credit card, which I took care of right away, then told me that they only had one room left which they could sell for a higher rate and since I was not with my techs they could not check in.  I told the nice person on the phone that they had their own company credit cards and could take care of the bill themselves.  She called me back and said that the manager Carl said no we had to send copies of our ID's fill out paperwork and fax it back.  Where I am located it is a two hour time difference.  I explained to the gal on the phone if I could please talk to Carl the manager that I was having a dinner party and I would like to get this taken care of quickly.  None of that happened.  It was almost 3 hours of phone calls back and forth.  I am a member of the hotel chain club, never have ever experienced such bad management communication.  Not only did Carl ruin my dinner party, but also made sure that they were placed in the wrong room that we had booked.  All over GREED of selling the room that we had booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded November 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2016</t>
+  </si>
+  <si>
+    <t>I made reservations for my techs that were working in the area and needed a hotel close to where our job was located at.  The hotel called me to tell me that they had a problem with my credit card, which I took care of right away, then told me that they only had one room left which they could sell for a higher rate and since I was not with my techs they could not check in.  I told the nice person on the phone that they had their own company credit cards and could take care of the bill themselves.  She called me back and said that the manager Carl said no we had to send copies of our ID's fill out paperwork and fax it back.  Where I am located it is a two hour time difference.  I explained to the gal on the phone if I could please talk to Carl the manager that I was having a dinner party and I would like to get this taken care of quickly.  None of that happened.  It was almost 3 hours of phone calls back and forth.  I am a member of the hotel chain club, never have ever experienced such bad management communication.  Not only did Carl ruin my dinner party, but also made sure that they were placed in the wrong room that we had booked.  All over GREED of selling the room that we...I made reservations for my techs that were working in the area and needed a hotel close to where our job was located at.  The hotel called me to tell me that they had a problem with my credit card, which I took care of right away, then told me that they only had one room left which they could sell for a higher rate and since I was not with my techs they could not check in.  I told the nice person on the phone that they had their own company credit cards and could take care of the bill themselves.  She called me back and said that the manager Carl said no we had to send copies of our ID's fill out paperwork and fax it back.  Where I am located it is a two hour time difference.  I explained to the gal on the phone if I could please talk to Carl the manager that I was having a dinner party and I would like to get this taken care of quickly.  None of that happened.  It was almost 3 hours of phone calls back and forth.  I am a member of the hotel chain club, never have ever experienced such bad management communication.  Not only did Carl ruin my dinner party, but also made sure that they were placed in the wrong room that we had booked.  All over GREED of selling the room that we had booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r434901290-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>434901290</t>
+  </si>
+  <si>
+    <t>11/05/2016</t>
+  </si>
+  <si>
+    <t>Affortable and clean</t>
+  </si>
+  <si>
+    <t>Stayed the night as I was visiting Disneyland and did not want to drive back home. I did check in late which took around 4 minutes to get my key and sign all paperwork. Got a 1 bed room which was clean and ok for a night. Bed was real comfortable with plenty of pillows.  My only concern would be that shower water was not hot enough for my taste but was able to shower comfortable. Thanks.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed the night as I was visiting Disneyland and did not want to drive back home. I did check in late which took around 4 minutes to get my key and sign all paperwork. Got a 1 bed room which was clean and ok for a night. Bed was real comfortable with plenty of pillows.  My only concern would be that shower water was not hot enough for my taste but was able to shower comfortable. Thanks.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r433689526-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>433689526</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Cheap and great</t>
+  </si>
+  <si>
+    <t>We stayed there for a last minute Disneyland trip. It was the best value we could find last minute for just over 60 bucks a night and we weren't disappointed at all they looked like they were freshly renovated and clean.   MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>We stayed there for a last minute Disneyland trip. It was the best value we could find last minute for just over 60 bucks a night and we weren't disappointed at all they looked like they were freshly renovated and clean.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r427461031-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>427461031</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Vacation stay</t>
+  </si>
+  <si>
+    <t>Very clean and quiet. Would highly recommend this place to everyone. Albert did an outstanding job with all my needs and was very attentive.  Will definitely visit here again!  Nicely remodeled rooms with microwave and refrigerator.  No bugs and daily room service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Very clean and quiet. Would highly recommend this place to everyone. Albert did an outstanding job with all my needs and was very attentive.  Will definitely visit here again!  Nicely remodeled rooms with microwave and refrigerator.  No bugs and daily room service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r416357267-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>416357267</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Angel at the front desk was very professional and accommodating.  He gave superior service and made checking in quick and easy. He made sure I was getting good service and a great room.  I am very satisfied with the service I received today.   MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Angel at the front desk was very professional and accommodating.  He gave superior service and made checking in quick and easy. He made sure I was getting good service and a great room.  I am very satisfied with the service I received today.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r416296851-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>416296851</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>Angel here at Knights Inn has been such a nice gentleman and made us feel right at home. I came here with my boys and they think that Angel is very nice. I would definitely come back and recommend a friend to stay. The rooms are nice and clean. And its a great location. MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel here at Knights Inn has been such a nice gentleman and made us feel right at home. I came here with my boys and they think that Angel is very nice. I would definitely come back and recommend a friend to stay. The rooms are nice and clean. And its a great location. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r408080330-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>408080330</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Angel provided us with excellent customer service!</t>
+  </si>
+  <si>
+    <t>From the moment we walked in the lobby we felt so welcomed by Angel who provided excellent service! Actual room wasn't great. Beds too soft, carpet icky... But for the price I think it was acceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>From the moment we walked in the lobby we felt so welcomed by Angel who provided excellent service! Actual room wasn't great. Beds too soft, carpet icky... But for the price I think it was acceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r407380925-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>407380925</t>
+  </si>
+  <si>
+    <t>08/19/2016</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Angel was awesome. Had a great chat before departing ways. Definitely recommend this place everytime you visit this area! 5 star plus for them. Orange juice and toast for morning meal. Rooms are excellent along with quiet guests for my stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>Angel was awesome. Had a great chat before departing ways. Definitely recommend this place everytime you visit this area! 5 star plus for them. Orange juice and toast for morning meal. Rooms are excellent along with quiet guests for my stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r406707435-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>406707435</t>
+  </si>
+  <si>
+    <t>08/17/2016</t>
+  </si>
+  <si>
+    <t>Angel!</t>
+  </si>
+  <si>
+    <t>Angel is one of the kindest customer service guys out there man, the guy is so polite and makes you feel like you two have known each other for a long time! If you ever want a hotel on top of free breakfast with great location, INCLUDING THE NICEST DESK GUY IN THE WORLD.. come out here brehMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Angel is one of the kindest customer service guys out there man, the guy is so polite and makes you feel like you two have known each other for a long time! If you ever want a hotel on top of free breakfast with great location, INCLUDING THE NICEST DESK GUY IN THE WORLD.. come out here brehMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r403752714-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>403752714</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>Great place and staff</t>
+  </si>
+  <si>
+    <t>I had a problem with my room key 2 times and Angel was really nice when i told him what was wrong. This is place is great the staff in great. I stayed with my family for 4 nights and never had a problem. thank you :)MoreShow less</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>I had a problem with my room key 2 times and Angel was really nice when i told him what was wrong. This is place is great the staff in great. I stayed with my family for 4 nights and never had a problem. thank you :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r403401311-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>403401311</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>My visit was awesome. I shared it with an awesome person and the hotel/motel was awesome.</t>
+  </si>
+  <si>
+    <t>The inn was very nice and clean.  The carpet could have been cleaner but I believe they were in the process of remodeling the units.  You have a fridge and microwave which was what I was looking for.  Angel, the person at the front desk was very helpful and explained everything to me with out a fuss.  I cant wait to come back/  I am planning for the next trip todayMoreShow less</t>
+  </si>
+  <si>
+    <t>The inn was very nice and clean.  The carpet could have been cleaner but I believe they were in the process of remodeling the units.  You have a fridge and microwave which was what I was looking for.  Angel, the person at the front desk was very helpful and explained everything to me with out a fuss.  I cant wait to come back/  I am planning for the next trip todayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r402639313-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>402639313</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Angel is the man</t>
+  </si>
+  <si>
+    <t>Angel is one of the best hotel front desk people I've ever met. This hotel is such a great place for the $. Ask for Angel when you call in to make reservations and tell them Shannon referred you . Microwave and fridge is a plus, the upgraded rooms are the bombMoreShow less</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 9, 2016</t>
+  </si>
+  <si>
+    <t>Angel is one of the best hotel front desk people I've ever met. This hotel is such a great place for the $. Ask for Angel when you call in to make reservations and tell them Shannon referred you . Microwave and fridge is a plus, the upgraded rooms are the bombMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r401493400-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>401493400</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Good service!</t>
+  </si>
+  <si>
+    <t>Angel was who I checked in with, and he was very friendly and helpful. I was supposed to check in at 3 PM, but I got there about 15 minutes earlier and he was able to check us in! He was very friendly and helpful! He helped us carry up our stuff even though we said it was okay, he was very nice. He gave us a few tips about going to Universals and around. Great service, friendly!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Angel was who I checked in with, and he was very friendly and helpful. I was supposed to check in at 3 PM, but I got there about 15 minutes earlier and he was able to check us in! He was very friendly and helpful! He helped us carry up our stuff even though we said it was okay, he was very nice. He gave us a few tips about going to Universals and around. Great service, friendly!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r400637395-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>400637395</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We had a great stay at the Knights inn. Angel was very helpful, friendly and put us at ease. This is our first trip to the USA. Angel's help made it easier to find things and gave us information we needed. The room was clean, and the beds were really comfortable. Breakfast was enough for us. If your reading this Angel find me on Facebook.Regards ShaneMoreShow less</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>We had a great stay at the Knights inn. Angel was very helpful, friendly and put us at ease. This is our first trip to the USA. Angel's help made it easier to find things and gave us information we needed. The room was clean, and the beds were really comfortable. Breakfast was enough for us. If your reading this Angel find me on Facebook.Regards ShaneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r400024045-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>400024045</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Knights inn</t>
+  </si>
+  <si>
+    <t>The stay was great thanks to the man at the front desk "Angel"  was more than helpful making sure all my accommodations were met..... let me tell u the name matches the man.. thanks again. The breakfast in the Morning was good I mean how can you go wrong with a bowl of captain crunch. MoreShow less</t>
+  </si>
+  <si>
+    <t>The stay was great thanks to the man at the front desk "Angel"  was more than helpful making sure all my accommodations were met..... let me tell u the name matches the man.. thanks again. The breakfast in the Morning was good I mean how can you go wrong with a bowl of captain crunch. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r361224508-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>361224508</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect place to crash after a long day at Disneyland </t>
+  </si>
+  <si>
+    <t>It was my first time going on a short vacation alone and I must say Knights Inn is a perfect place for a place to sleep and stay at. The place was clean and people are nice. The owner greeted me on the first day and made sure I was comfortable. He was willing to help me when the connection of the TV and cable weren't working. The only thing I didn't like was that I had 15 minutes before checkout and the owner went knocking on the door, saying it was check out time. Other than that, I would recommend this inn for anyone, especially families who are looking for a cheaper place to stay that is only 13 mins away from Disneyland  and want their money to go a long way while they are here exploring their surroundings. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Dixie H, Manager at Dixie Orange County Hotel, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>It was my first time going on a short vacation alone and I must say Knights Inn is a perfect place for a place to sleep and stay at. The place was clean and people are nice. The owner greeted me on the first day and made sure I was comfortable. He was willing to help me when the connection of the TV and cable weren't working. The only thing I didn't like was that I had 15 minutes before checkout and the owner went knocking on the door, saying it was check out time. Other than that, I would recommend this inn for anyone, especially families who are looking for a cheaper place to stay that is only 13 mins away from Disneyland  and want their money to go a long way while they are here exploring their surroundings. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r357443483-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>357443483</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Just average, but fair price</t>
+  </si>
+  <si>
+    <t>Typical american motel room. I really appreciated the non-smoking in room policy. Really seem to work out. Rooms were simple, but didn't smell bad. Breakfast very basic. Good location if going to Anaheim Convention Center or Disneyland. Quite close to Santa Ana - Orange County Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Typical american motel room. I really appreciated the non-smoking in room policy. Really seem to work out. Rooms were simple, but didn't smell bad. Breakfast very basic. Good location if going to Anaheim Convention Center or Disneyland. Quite close to Santa Ana - Orange County Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r353728302-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>353728302</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horrible </t>
+  </si>
+  <si>
+    <t>Loud/guest all night long. Moldy shower curtain. Employees standing right outside our window talking loudly a lot. Employees disregarding do not disturb sign. Quoted $100 less than was charged. Poor selection for breakfast. Construction going on with no notice to guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>Loud/guest all night long. Moldy shower curtain. Employees standing right outside our window talking loudly a lot. Employees disregarding do not disturb sign. Quoted $100 less than was charged. Poor selection for breakfast. Construction going on with no notice to guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r320261066-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>320261066</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Cheap and cheerful</t>
+  </si>
+  <si>
+    <t>Round the corner from Disney. Area is a bit suspect, but on the whole good enough for a couple of nights. Needs some renovation to fixtures/fittings etc. Example the light in the bathroom was broken (flashed and buzzed). As I say, not saying its a bad place, just needs some refinement and renovation.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Round the corner from Disney. Area is a bit suspect, but on the whole good enough for a couple of nights. Needs some renovation to fixtures/fittings etc. Example the light in the bathroom was broken (flashed and buzzed). As I say, not saying its a bad place, just needs some refinement and renovation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r301281018-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>301281018</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>ok place</t>
+  </si>
+  <si>
+    <t>we stayed 5 nights here in june it was ok when we booked it stated breakfast was included upon arrival was told this was not so only coffee, we did have a fridge and microwave so ws able to go to walmart and gt a few cheap things for breakfast, small pool and spa was not working at the time, room was clean however you had to request housekeeping thought this a bit funny, neighbourhood ok a few fast food places within walking distance</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r294450147-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>294450147</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>Dirty, stealing</t>
+  </si>
+  <si>
+    <t>The rooms are disgusting, don't take your shoes off or your feet will become black, the maids steal your stuff while your away, and there's mold in the shower. Don't stay here if you get the night free!! The wifi is also incredibly slow.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r281585443-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>281585443</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Check out early!</t>
+  </si>
+  <si>
+    <t>They say a picture says a thousand words and I took five because I can't believe how terrible this place is. The first thing I did when I arrived was wipe down the toilet myself. There was unidentifiable trash in the waste basket and I bought bottled water to brush my teeth. It's definitely a discount hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r273126353-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>273126353</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Family trip</t>
+  </si>
+  <si>
+    <t>My husband and I booked here for a trip we had to make for the weekend with our kids.  Needless to say, you really get what you pay for.  The room was not very clean, we found two dirty towels in our room that were more than likely left behind by housekeeping the night we arrived and there were hairs on a couple of the pillows.  The room looked as if it was still going through some type of upgrades.  There was paint splatter in the shower and the ceiling, and overall the room just looked real run down. The only thing we really liked about the place was that the beds were pretty comfortable and our A/C worked really well.  We will more than likely not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My husband and I booked here for a trip we had to make for the weekend with our kids.  Needless to say, you really get what you pay for.  The room was not very clean, we found two dirty towels in our room that were more than likely left behind by housekeeping the night we arrived and there were hairs on a couple of the pillows.  The room looked as if it was still going through some type of upgrades.  There was paint splatter in the shower and the ceiling, and overall the room just looked real run down. The only thing we really liked about the place was that the beds were pretty comfortable and our A/C worked really well.  We will more than likely not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r272405738-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>272405738</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>Last minute hotel</t>
+  </si>
+  <si>
+    <t>This is one of those "I need a hotel at the last minute and I'm on a tight budget" type of motels. The hotel is in a quiet area, the guy at the front office was nice.  Online, I saw they had photos of breakfast offerings, which is pretty much like false advertising now since they don't offer any type of breakfast. There was a vending machine in the main office, but it was 90% empty.  The hotel is next to a small car dealership (thought that was funny) and there's not really any place to grab food within walking distance. Beach Blvd does have a lot of options though, you just have to drive to them.
+There was a pool, but it's not huge, we didn't use it. 
+The hotel's in poor condition. The room and everything in it seemed very old. There was a large flat screen tv in room (wow!) &amp; we did get HBO so there's a plus. The beds were comfy and it was a quiet hotel. The bathroom was small &amp; the tub looked so old, dirty and used. I had no desire to take a shower in it (I can put up with a lot, but I couldn't bring myself to step in that). By the sink, there was a huge hole in the carpet and the carpet itself has seen better days.  The room did have a fridge that worked and we...This is one of those "I need a hotel at the last minute and I'm on a tight budget" type of motels. The hotel is in a quiet area, the guy at the front office was nice.  Online, I saw they had photos of breakfast offerings, which is pretty much like false advertising now since they don't offer any type of breakfast. There was a vending machine in the main office, but it was 90% empty.  The hotel is next to a small car dealership (thought that was funny) and there's not really any place to grab food within walking distance. Beach Blvd does have a lot of options though, you just have to drive to them.There was a pool, but it's not huge, we didn't use it. The hotel's in poor condition. The room and everything in it seemed very old. There was a large flat screen tv in room (wow!) &amp; we did get HBO so there's a plus. The beds were comfy and it was a quiet hotel. The bathroom was small &amp; the tub looked so old, dirty and used. I had no desire to take a shower in it (I can put up with a lot, but I couldn't bring myself to step in that). By the sink, there was a huge hole in the carpet and the carpet itself has seen better days.  The room did have a fridge that worked and we didn't have any problems with.If you're going to Disneyland, there was no shuttle and it's a 15-20 minute drive to the park from here. This hotel is ok for an overnight stay, but longer than that, it's sketchy. At times, I thought some locals lived at this motel....  Would I stay here again? Yes.  Would I want to? NO.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is one of those "I need a hotel at the last minute and I'm on a tight budget" type of motels. The hotel is in a quiet area, the guy at the front office was nice.  Online, I saw they had photos of breakfast offerings, which is pretty much like false advertising now since they don't offer any type of breakfast. There was a vending machine in the main office, but it was 90% empty.  The hotel is next to a small car dealership (thought that was funny) and there's not really any place to grab food within walking distance. Beach Blvd does have a lot of options though, you just have to drive to them.
+There was a pool, but it's not huge, we didn't use it. 
+The hotel's in poor condition. The room and everything in it seemed very old. There was a large flat screen tv in room (wow!) &amp; we did get HBO so there's a plus. The beds were comfy and it was a quiet hotel. The bathroom was small &amp; the tub looked so old, dirty and used. I had no desire to take a shower in it (I can put up with a lot, but I couldn't bring myself to step in that). By the sink, there was a huge hole in the carpet and the carpet itself has seen better days.  The room did have a fridge that worked and we...This is one of those "I need a hotel at the last minute and I'm on a tight budget" type of motels. The hotel is in a quiet area, the guy at the front office was nice.  Online, I saw they had photos of breakfast offerings, which is pretty much like false advertising now since they don't offer any type of breakfast. There was a vending machine in the main office, but it was 90% empty.  The hotel is next to a small car dealership (thought that was funny) and there's not really any place to grab food within walking distance. Beach Blvd does have a lot of options though, you just have to drive to them.There was a pool, but it's not huge, we didn't use it. The hotel's in poor condition. The room and everything in it seemed very old. There was a large flat screen tv in room (wow!) &amp; we did get HBO so there's a plus. The beds were comfy and it was a quiet hotel. The bathroom was small &amp; the tub looked so old, dirty and used. I had no desire to take a shower in it (I can put up with a lot, but I couldn't bring myself to step in that). By the sink, there was a huge hole in the carpet and the carpet itself has seen better days.  The room did have a fridge that worked and we didn't have any problems with.If you're going to Disneyland, there was no shuttle and it's a 15-20 minute drive to the park from here. This hotel is ok for an overnight stay, but longer than that, it's sketchy. At times, I thought some locals lived at this motel....  Would I stay here again? Yes.  Would I want to? NO.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r235432350-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>235432350</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Terrible...not renovated...comes with ants!</t>
+  </si>
+  <si>
+    <t>It does seem like they are renovating with the amount of material lying around outside.Our rooms was TERRIBLE!!. Cracks in the bathroom tile with ants crawling around.Bathroom had burn marks and dark scratches along the tub/shower.  Sink had cracks and chips with mildew around the taps.  Used Qtips left along the bed.  So worried about bedbugs that I spent 2 hours phoning around at 2am after all day at Disneyland. Couldn't even dial out on the phone!! Found a wonderful place half hour away.  I was out of there quick with a full refund. Will add pics once I upload them from my iPhone.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r235370783-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>235370783</t>
+  </si>
+  <si>
+    <t>unsatisfied!!!</t>
+  </si>
+  <si>
+    <t>booked 3 non smoking room for this weekend (actually just checked out) and one room that we got smelled cigarette smoke room 217,complain to the front, lady offered room 203 but smell is worst and all she said was they are fully booked and sorry...my sister full bottle of bath and body cologne is empty from frequent spraying...its a good thing were always out... and just stayed to sleep which were already very tired!!!the bathroom has hair in the floor in the side...i'm very unsatisfied with this hotel!!!just an advice to the management: to make sure to check all rooms for smoking and non smoking odor coz there is a reason why people chooses non smoking rooms...MoreShow less</t>
+  </si>
+  <si>
+    <t>booked 3 non smoking room for this weekend (actually just checked out) and one room that we got smelled cigarette smoke room 217,complain to the front, lady offered room 203 but smell is worst and all she said was they are fully booked and sorry...my sister full bottle of bath and body cologne is empty from frequent spraying...its a good thing were always out... and just stayed to sleep which were already very tired!!!the bathroom has hair in the floor in the side...i'm very unsatisfied with this hotel!!!just an advice to the management: to make sure to check all rooms for smoking and non smoking odor coz there is a reason why people chooses non smoking rooms...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r235104567-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>235104567</t>
+  </si>
+  <si>
+    <t>10/18/2014</t>
+  </si>
+  <si>
+    <t>Dirty and shady charge to my credit card.</t>
+  </si>
+  <si>
+    <t>The beds were comfortable but that's as good as it gets. We got there finger nails and candy balls(I'm guessing whoppers) and cigarette bud underneath beds. Floor had a hole next to fridge. Bathroom was rusty. On top of that we go home to find a charge of 250$ charged to our account. We called back asking why since it was only a one night stay at 73.00. We were told its because we were smoking!!! My husband and I don't even smoke. So now we are being penalized for a horrible job done by the housekeeper for not picking up before we entered the room. Still waiting on issue to be resolved. Person who charged us was a woman named lily..and the guy we spoke to about resolving the issue is named ray. Don't stay here if you planned on gettn ripped off. If any one has info to contact the owners or someone to resolve this immediately please reply. Ty.I forgot to mention jacuzzi was not close to warm..freezing as a matter of fact.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amit B, General Manager at Dixie Orange County Hotel, responded to this reviewResponded October 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2014</t>
+  </si>
+  <si>
+    <t>The beds were comfortable but that's as good as it gets. We got there finger nails and candy balls(I'm guessing whoppers) and cigarette bud underneath beds. Floor had a hole next to fridge. Bathroom was rusty. On top of that we go home to find a charge of 250$ charged to our account. We called back asking why since it was only a one night stay at 73.00. We were told its because we were smoking!!! My husband and I don't even smoke. So now we are being penalized for a horrible job done by the housekeeper for not picking up before we entered the room. Still waiting on issue to be resolved. Person who charged us was a woman named lily..and the guy we spoke to about resolving the issue is named ray. Don't stay here if you planned on gettn ripped off. If any one has info to contact the owners or someone to resolve this immediately please reply. Ty.I forgot to mention jacuzzi was not close to warm..freezing as a matter of fact.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r217359389-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>217359389</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Amit B, General Manager at Dixie Orange County Hotel, responded to this reviewResponded September 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2014</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r217250716-Dixie_Orange_County_Hotel-Stanton_California.html</t>
+  </si>
+  <si>
+    <t>217250716</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1516,2422 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>116</v>
+      </c>
+      <c r="X9" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O10" t="s">
+        <v>124</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>125</v>
+      </c>
+      <c r="X10" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" t="s">
+        <v>130</v>
+      </c>
+      <c r="K11" t="s">
+        <v>131</v>
+      </c>
+      <c r="L11" t="s">
+        <v>132</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>133</v>
+      </c>
+      <c r="O11" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>124</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>124</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>165</v>
+      </c>
+      <c r="X15" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>180</v>
+      </c>
+      <c r="X17" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>184</v>
+      </c>
+      <c r="J18" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s">
+        <v>187</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>179</v>
+      </c>
+      <c r="O18" t="s">
+        <v>124</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" t="s">
+        <v>191</v>
+      </c>
+      <c r="K19" t="s">
+        <v>192</v>
+      </c>
+      <c r="L19" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>194</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" t="s">
+        <v>194</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>194</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>215</v>
+      </c>
+      <c r="X23" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>226</v>
+      </c>
+      <c r="J24" t="s">
+        <v>227</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>229</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>179</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" t="s">
+        <v>194</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>230</v>
+      </c>
+      <c r="X25" t="s">
+        <v>231</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+      <c r="K26" t="s">
+        <v>242</v>
+      </c>
+      <c r="L26" t="s">
+        <v>243</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>244</v>
+      </c>
+      <c r="O26" t="s">
+        <v>124</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
+        <v>252</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>244</v>
+      </c>
+      <c r="O27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>245</v>
+      </c>
+      <c r="X27" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>254</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>255</v>
+      </c>
+      <c r="J28" t="s">
+        <v>256</v>
+      </c>
+      <c r="K28" t="s">
+        <v>257</v>
+      </c>
+      <c r="L28" t="s">
+        <v>258</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>244</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>245</v>
+      </c>
+      <c r="X28" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>265</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>245</v>
+      </c>
+      <c r="X29" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>267</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>268</v>
+      </c>
+      <c r="J30" t="s">
+        <v>269</v>
+      </c>
+      <c r="K30" t="s">
+        <v>270</v>
+      </c>
+      <c r="L30" t="s">
+        <v>271</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>272</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>273</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>274</v>
+      </c>
+      <c r="J31" t="s">
+        <v>275</v>
+      </c>
+      <c r="K31" t="s">
+        <v>276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>278</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J32" t="s">
+        <v>281</v>
+      </c>
+      <c r="K32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L32" t="s">
+        <v>283</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>285</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="K33" t="s">
+        <v>287</v>
+      </c>
+      <c r="L33" t="s">
+        <v>288</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>291</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>292</v>
+      </c>
+      <c r="J34" t="s">
+        <v>293</v>
+      </c>
+      <c r="K34" t="s">
+        <v>294</v>
+      </c>
+      <c r="L34" t="s">
+        <v>295</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>298</v>
+      </c>
+      <c r="J35" t="s">
+        <v>299</v>
+      </c>
+      <c r="K35" t="s">
+        <v>300</v>
+      </c>
+      <c r="L35" t="s">
+        <v>301</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>302</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>303</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>304</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>309</v>
+      </c>
+      <c r="J37" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" t="s">
+        <v>311</v>
+      </c>
+      <c r="L37" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>302</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>313</v>
+      </c>
+      <c r="X37" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" t="s">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s">
+        <v>194</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>3933</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>318</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s">
+        <v>319</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>320</v>
+      </c>
+      <c r="O39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>321</v>
+      </c>
+      <c r="X39" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_757.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_757.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="364">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>559MoM</t>
   </si>
   <si>
     <t>07/12/2018</t>
@@ -197,6 +200,9 @@
 Room 216 at first glance was pretty clean but has no couch and the cot they supplied was pretty old and in terrible shape. The room was not prepared for 5 ppl and we were asked to meet the gal at the back door and take the cot up the stairs. The linen was stained w what looked like old blood on one bed and the towels were pretty old. Nobody ever came in to change it after I...For the price I wasn’t expecting much. Based on the photos I saw prior to checking TripAdvisor I figured I’d be ok. I was wrong.The area is really run down and turns out not very safe. All night long there were sirens and one night someone fighting outside. My hopes were high since I am a fan of older era motels. The look and style is my thing and as long as it’s clean in the sleeping area I do not complain or expect much. Pulling in and seeing the newer bright orange sign I mistakenly thought we’d be in for a decent stay. I again, was wrong. I checked in very quickly through a small window at 1:00 a.m. Saturday morning. The young lady that helped me was fast and as pleasant as one could expect at the hour. She gave me room 216, on the second level. Parking was huge, sort of dark and there is no elevator. Room 216 at first glance was pretty clean but has no couch and the cot they supplied was pretty old and in terrible shape. The room was not prepared for 5 ppl and we were asked to meet the gal at the back door and take the cot up the stairs. The linen was stained w what looked like old blood on one bed and the towels were pretty old. Nobody ever came in to change it after I asked twice. We made it work by covering the entire bed w extra sheets we got the next morning. The beds are very old and springy, with large dips in the center of both. The fridge and micro was clean. WiFi was ok. Nothing smelled weird and the pillows were pretty great (the kindly provided us w extras too!). We did not try the continental breakfast. Our restroom was pretty tight but clean. Shampoo, lotion and soap was included. The shower was old and water temp finicky. We noticed the pool, we didn’t use was much smaller (but clean) than the photos indicate, kudos to the management photographer cause we were thoroughly fooled. I can’t say I’d return since it was such an uncomfortable stay and I may need bloodwork from all the stains I encountered but if your wife has kicked you out and all you have is a few bucks and a Disney pass check this place. Disneyland is a 15 min drive and Knotts about 10. The photos posted are before we discovered the blood. More</t>
   </si>
   <si>
+    <t>Adrienne C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r548053021-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -224,6 +230,9 @@
     <t>I have stayed here in the passed and it was okay besides the time my children were taking a bath and water was coming out of the ceiling light in the bathroom right into the tub, This time I booked my room like 3 weeks in advance for them to call me 2 hours before check in and tell me that my reservations were cancelled. I explain to her I am suppose to be checking in in 2 hours with children and now what to do. Lady at the desk said o well I'm sorry there is nothing we can do for you,  I asked to rent another room very rudely she replied no I don't have none available. I will never stay at this place again due to them being so unprofessional and very rude, BEWARE YOU MIGHT NOT HAVE A ROOM TO STAY IN..............More</t>
   </si>
   <si>
+    <t>Summer0fstars</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r547608692-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -248,6 +257,9 @@
     <t>My family and I were embarking on a cross country road trip and needed a hotel to spend the night in that was close to the Best Times RV Depot as we were renting a camper from them for it.  We booked two rooms at this location to stay the first night of our trip and the last.  Upon arriving, we checked in and got room keys for two rooms. We requested at least 1 room downstairs for my mother who can't do stairs and they were able to accommodate us. We unloaded our luggage into her room and due to some unrelated issues, we weren't able to go check the room we had gotten keys for upstairs.  We returned later that night, grabbed some luggage from the downstairs room and walked up the stairs, double checked the room number and used our key to enter, however, upon opening the door, it was locked from the inside and someone was very startled inside.  We quickly retreated to the lobby.  The people we startled had already called the lobby. At this pint, the gentleman that checked us in was no longer on shift.  The employee working, apologized and put us in one of their Air B&amp;B suites.  He said it appeared the employee earlier had checked me in, checked me out, and checked the other party in.  The employee who helped us was Tyler and I want to make sure management...My family and I were embarking on a cross country road trip and needed a hotel to spend the night in that was close to the Best Times RV Depot as we were renting a camper from them for it.  We booked two rooms at this location to stay the first night of our trip and the last.  Upon arriving, we checked in and got room keys for two rooms. We requested at least 1 room downstairs for my mother who can't do stairs and they were able to accommodate us. We unloaded our luggage into her room and due to some unrelated issues, we weren't able to go check the room we had gotten keys for upstairs.  We returned later that night, grabbed some luggage from the downstairs room and walked up the stairs, double checked the room number and used our key to enter, however, upon opening the door, it was locked from the inside and someone was very startled inside.  We quickly retreated to the lobby.  The people we startled had already called the lobby. At this pint, the gentleman that checked us in was no longer on shift.  The employee working, apologized and put us in one of their Air B&amp;B suites.  He said it appeared the employee earlier had checked me in, checked me out, and checked the other party in.  The employee who helped us was Tyler and I want to make sure management knows how valuable he is.  He handled everything and made sure we were taken care of. I feel bad for the people we startled awake though.  Tyler said that management would call us by 10am the next day but we never got a call. A call would have been nice after what had happened.  The rooms were ok. They are fairly large.  The water in our bath was very dirty and colored.  Gross!  We opted to not shower that night. A party was clearly happening right below us and was loud.  People were in the lobby complaining and Tyler dealt with that as well.   We were able to get a decent nights sleep and left early the next morning.  Because of the issues, we tried to find a different hotel to stay in for the return trip but couldn't find anything so we ended up there again.  This time, nothing major happened, however, the air/heating units were leaking from most rooms and the TV service was also out in both of our rooms as well as others as people were complaining about it as well.  The lobby furniture is pretty dirty.  Breakfast consisted for cereal, juice, milk and a few pastry options none of which I would have eaten given the condition of the lobby. We wouldn't frequent this hotel but if you are looking for a budget motel in that area, it works.  Thank you to Tyler again for his help!  If this was based on him along, it would be 5 stars for service.More</t>
   </si>
   <si>
+    <t>Jessica A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r517848702-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -275,6 +287,9 @@
     <t>It's cheap and on the affordable side. The gentleman who checked us in was very nice and helped us when our key didn't work. However, when we checked in the trash wasn't taken out, barely any toilet paper and the floors were dirty. Our feet were turning so dark from the ground I couldn't believe it. I must've been checked into a dirty room... I had a reservation for two days but I just couldn't do it.More</t>
   </si>
   <si>
+    <t>Rokgoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r505259487-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -302,6 +317,9 @@
     <t>Positive:Room was clean and not noisy. Beds were clean and comfortable. The location is about 15 minutes from Disneyland. It has a big parking lot. The front desk was friendly.  Negative:The Internet connection is totally useless. The connection interrupts every second and if you get a connection, the speed is so slow that it is almost impossible to do anything.The shower had a shabby and very short curtain. After a 5 minute shower, water is all over the bathroom and runs over the floor to the room. There were no chairs and no table in the room.The breakfast was very poor. There were only some small pastries, yogurt. No milk, no juice, no cereals, no breads, no butter, no cream cheese. They had packaged oatmeal but not on the desk. I had to ask for it every time and the front desk employee (manager) had to take one out of the cabinet and put on my hand.There were only three highchairs to seat which is really uncomfortable for breakfast.More</t>
   </si>
   <si>
+    <t>AussieBruvSis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r503339473-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -329,6 +347,9 @@
     <t>Very basic, not even a chair in the room, the phone was broken at the cord where it inserts into the phone, advised management but nothing was done about it.  No safety lock on the door, old furniture, there was a fridge and microwave.  Towels were small and thin, breakfast was laughable, horrid cheap danish"s and sugar laden bars, only the very early birds would get fruit. The location suited us for the 4 days we were there but that was about all.More</t>
   </si>
   <si>
+    <t>Frenzy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r462723742-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -356,6 +377,9 @@
     <t>Spending time with family and on a new job. Apples is a sweetheart and helpful at the front desk to check us in. Housekeeping was very nice and all smiles. Our 2 bed room we rented was very nice and beds were comfy. I love the no smoking in rooms or by the building  ( parking lot smoking ) I do smoke also but never indoors, so the room was fresh smelling not like an ashtray even if rooms say smoke free they still carry that tinge smell of cigs. Fridge and microwave is so convenient, fast food everyday is a no go for me, so a few frozen meals are good here and there also. Pool looka great but its way too cold for a dip at this time. The other rooms are quite since we have been here and that's a plus. More</t>
   </si>
   <si>
+    <t>Tuluda T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r453292370-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -381,6 +405,9 @@
   </si>
   <si>
     <t>It was great for my family to be thereHowever, the staff couldn't help much, not even a can opener can be provided. Except 1 skinny pretty girl called Apples, she tried to help us positively.Best price motel in Orange CountryMore</t>
+  </si>
+  <si>
+    <t>lifer p</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r448699721-Dixie_Orange_County_Hotel-Stanton_California.html</t>
@@ -420,6 +447,9 @@
 3 stars because I'd like to think the cleaning ladies...I was surprised, it was a lot better than the filthy (FILTHY) motel 6 and la quinta inns I've been in. The room was actually nice. Well, for the record, I think their normal rates are 120$ a night, but I got an express deal for 60$ a night.There are water damages. Understandable, since maybe some college students partied hard before. I won't take it against them. The bathroom floors and main table have water damages. It's fine, I don't mind that.What I do mind however, is that it felt like my room had been rushed cleaned. I don't even think my sheets have been changed!! The main room itself is nice but the cleanable things have been rushed. Maybe it's because it's the last room and the cleaning ladies were trying to make it before the 3pm check in time, and they took a lot of short cuts. But I wish my sheets have been changed (it was stinky, like somebody slept in it before) and the bathroom still had a bunch of gunks that weren't cleaned.Before you say anything, I am NOT a neat freak. I am an ordinary guy living in a very disorganized house (not neat at all), my tolerance for filth is high (lol). But yeah, you can gauge how stinky the sheets were coming from a slovenly, untidy guy like me.3 stars because I'd like to think the cleaning ladies just had an off day. Maybe they were just extra tired that day and they took short cuts. Cross fingers.More</t>
   </si>
   <si>
+    <t>Debbiie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r435126081-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -450,6 +480,9 @@
     <t>I made reservations for my techs that were working in the area and needed a hotel close to where our job was located at.  The hotel called me to tell me that they had a problem with my credit card, which I took care of right away, then told me that they only had one room left which they could sell for a higher rate and since I was not with my techs they could not check in.  I told the nice person on the phone that they had their own company credit cards and could take care of the bill themselves.  She called me back and said that the manager Carl said no we had to send copies of our ID's fill out paperwork and fax it back.  Where I am located it is a two hour time difference.  I explained to the gal on the phone if I could please talk to Carl the manager that I was having a dinner party and I would like to get this taken care of quickly.  None of that happened.  It was almost 3 hours of phone calls back and forth.  I am a member of the hotel chain club, never have ever experienced such bad management communication.  Not only did Carl ruin my dinner party, but also made sure that they were placed in the wrong room that we had booked.  All over GREED of selling the room that we...I made reservations for my techs that were working in the area and needed a hotel close to where our job was located at.  The hotel called me to tell me that they had a problem with my credit card, which I took care of right away, then told me that they only had one room left which they could sell for a higher rate and since I was not with my techs they could not check in.  I told the nice person on the phone that they had their own company credit cards and could take care of the bill themselves.  She called me back and said that the manager Carl said no we had to send copies of our ID's fill out paperwork and fax it back.  Where I am located it is a two hour time difference.  I explained to the gal on the phone if I could please talk to Carl the manager that I was having a dinner party and I would like to get this taken care of quickly.  None of that happened.  It was almost 3 hours of phone calls back and forth.  I am a member of the hotel chain club, never have ever experienced such bad management communication.  Not only did Carl ruin my dinner party, but also made sure that they were placed in the wrong room that we had booked.  All over GREED of selling the room that we had booked.More</t>
   </si>
   <si>
+    <t>Travelling D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r434901290-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -468,6 +501,9 @@
     <t>Stayed the night as I was visiting Disneyland and did not want to drive back home. I did check in late which took around 4 minutes to get my key and sign all paperwork. Got a 1 bed room which was clean and ok for a night. Bed was real comfortable with plenty of pillows.  My only concern would be that shower water was not hot enough for my taste but was able to shower comfortable. Thanks.More</t>
   </si>
   <si>
+    <t>Matt Diana B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r433689526-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -489,6 +525,9 @@
     <t>We stayed there for a last minute Disneyland trip. It was the best value we could find last minute for just over 60 bucks a night and we weren't disappointed at all they looked like they were freshly renovated and clean.   More</t>
   </si>
   <si>
+    <t>whitekatheryn66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r427461031-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -513,6 +552,9 @@
     <t>Very clean and quiet. Would highly recommend this place to everyone. Albert did an outstanding job with all my needs and was very attentive.  Will definitely visit here again!  Nicely remodeled rooms with microwave and refrigerator.  No bugs and daily room service. More</t>
   </si>
   <si>
+    <t>Peter R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r416357267-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -540,6 +582,9 @@
     <t>Angel at the front desk was very professional and accommodating.  He gave superior service and made checking in quick and easy. He made sure I was getting good service and a great room.  I am very satisfied with the service I received today.   More</t>
   </si>
   <si>
+    <t>Corinne R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r416296851-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -558,6 +603,9 @@
     <t>Angel here at Knights Inn has been such a nice gentleman and made us feel right at home. I came here with my boys and they think that Angel is very nice. I would definitely come back and recommend a friend to stay. The rooms are nice and clean. And its a great location. More</t>
   </si>
   <si>
+    <t>Brittany O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r408080330-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -585,6 +633,9 @@
     <t>From the moment we walked in the lobby we felt so welcomed by Angel who provided excellent service! Actual room wasn't great. Beds too soft, carpet icky... But for the price I think it was acceptable.More</t>
   </si>
   <si>
+    <t>Brandon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r407380925-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>Angel was awesome. Had a great chat before departing ways. Definitely recommend this place everytime you visit this area! 5 star plus for them. Orange juice and toast for morning meal. Rooms are excellent along with quiet guests for my stay. More</t>
   </si>
   <si>
+    <t>Frawt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r406707435-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>Angel is one of the kindest customer service guys out there man, the guy is so polite and makes you feel like you two have known each other for a long time! If you ever want a hotel on top of free breakfast with great location, INCLUDING THE NICEST DESK GUY IN THE WORLD.. come out here brehMore</t>
   </si>
   <si>
+    <t>reyna2721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r403752714-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>I had a problem with my room key 2 times and Angel was really nice when i told him what was wrong. This is place is great the staff in great. I stayed with my family for 4 nights and never had a problem. thank you :)More</t>
   </si>
   <si>
+    <t>catherinedelay73</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r403401311-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -666,6 +726,9 @@
     <t>The inn was very nice and clean.  The carpet could have been cleaner but I believe they were in the process of remodeling the units.  You have a fridge and microwave which was what I was looking for.  Angel, the person at the front desk was very helpful and explained everything to me with out a fuss.  I cant wait to come back/  I am planning for the next trip todayMore</t>
   </si>
   <si>
+    <t>serenityx4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r402639313-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -690,6 +753,9 @@
     <t>Angel is one of the best hotel front desk people I've ever met. This hotel is such a great place for the $. Ask for Angel when you call in to make reservations and tell them Shannon referred you . Microwave and fridge is a plus, the upgraded rooms are the bombMore</t>
   </si>
   <si>
+    <t>Tina N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r401493400-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -711,6 +777,9 @@
     <t>Angel was who I checked in with, and he was very friendly and helpful. I was supposed to check in at 3 PM, but I got there about 15 minutes earlier and he was able to check us in! He was very friendly and helpful! He helped us carry up our stuff even though we said it was okay, he was very nice. He gave us a few tips about going to Universals and around. Great service, friendly!!More</t>
   </si>
   <si>
+    <t>Shane M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r400637395-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -735,6 +804,9 @@
     <t>We had a great stay at the Knights inn. Angel was very helpful, friendly and put us at ease. This is our first trip to the USA. Angel's help made it easier to find things and gave us information we needed. The room was clean, and the beds were really comfortable. Breakfast was enough for us. If your reading this Angel find me on Facebook.Regards ShaneMore</t>
   </si>
   <si>
+    <t>Johnny G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r400024045-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -753,6 +825,9 @@
     <t>The stay was great thanks to the man at the front desk "Angel"  was more than helpful making sure all my accommodations were met..... let me tell u the name matches the man.. thanks again. The breakfast in the Morning was good I mean how can you go wrong with a bowl of captain crunch. More</t>
   </si>
   <si>
+    <t>Camille M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r361224508-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -780,6 +855,9 @@
     <t>It was my first time going on a short vacation alone and I must say Knights Inn is a perfect place for a place to sleep and stay at. The place was clean and people are nice. The owner greeted me on the first day and made sure I was comfortable. He was willing to help me when the connection of the TV and cable weren't working. The only thing I didn't like was that I had 15 minutes before checkout and the owner went knocking on the door, saying it was check out time. Other than that, I would recommend this inn for anyone, especially families who are looking for a cheaper place to stay that is only 13 mins away from Disneyland  and want their money to go a long way while they are here exploring their surroundings. More</t>
   </si>
   <si>
+    <t>Frederico D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r357443483-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -798,6 +876,9 @@
     <t>Typical american motel room. I really appreciated the non-smoking in room policy. Really seem to work out. Rooms were simple, but didn't smell bad. Breakfast very basic. Good location if going to Anaheim Convention Center or Disneyland. Quite close to Santa Ana - Orange County Airport.More</t>
   </si>
   <si>
+    <t>Kristen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r353728302-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -816,6 +897,9 @@
     <t>Loud/guest all night long. Moldy shower curtain. Employees standing right outside our window talking loudly a lot. Employees disregarding do not disturb sign. Quoted $100 less than was charged. Poor selection for breakfast. Construction going on with no notice to guest.More</t>
   </si>
   <si>
+    <t>Andrew F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r320261066-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -837,6 +921,9 @@
     <t>Round the corner from Disney. Area is a bit suspect, but on the whole good enough for a couple of nights. Needs some renovation to fixtures/fittings etc. Example the light in the bathroom was broken (flashed and buzzed). As I say, not saying its a bad place, just needs some refinement and renovation.More</t>
   </si>
   <si>
+    <t>kylie l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r301281018-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -855,6 +942,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Evan F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r294450147-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -873,6 +963,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Chance N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r281585443-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -888,6 +981,9 @@
     <t>They say a picture says a thousand words and I took five because I can't believe how terrible this place is. The first thing I did when I arrived was wipe down the toilet myself. There was unidentifiable trash in the waste basket and I bought bottled water to brush my teeth. It's definitely a discount hotel.</t>
   </si>
   <si>
+    <t>Kduran04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r273126353-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -907,6 +1003,9 @@
   </si>
   <si>
     <t>My husband and I booked here for a trip we had to make for the weekend with our kids.  Needless to say, you really get what you pay for.  The room was not very clean, we found two dirty towels in our room that were more than likely left behind by housekeeping the night we arrived and there were hairs on a couple of the pillows.  The room looked as if it was still going through some type of upgrades.  There was paint splatter in the shower and the ceiling, and overall the room just looked real run down. The only thing we really liked about the place was that the beds were pretty comfortable and our A/C worked really well.  We will more than likely not stay here again.More</t>
+  </si>
+  <si>
+    <t>Sandylr23</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r272405738-Dixie_Orange_County_Hotel-Stanton_California.html</t>
@@ -931,6 +1030,9 @@
 The hotel's in poor condition. The room and everything in it seemed very old. There was a large flat screen tv in room (wow!) &amp; we did get HBO so there's a plus. The beds were comfy and it was a quiet hotel. The bathroom was small &amp; the tub looked so old, dirty and used. I had no desire to take a shower in it (I can put up with a lot, but I couldn't bring myself to step in that). By the sink, there was a huge hole in the carpet and the carpet itself has seen better days.  The room did have a fridge that worked and we...This is one of those "I need a hotel at the last minute and I'm on a tight budget" type of motels. The hotel is in a quiet area, the guy at the front office was nice.  Online, I saw they had photos of breakfast offerings, which is pretty much like false advertising now since they don't offer any type of breakfast. There was a vending machine in the main office, but it was 90% empty.  The hotel is next to a small car dealership (thought that was funny) and there's not really any place to grab food within walking distance. Beach Blvd does have a lot of options though, you just have to drive to them.There was a pool, but it's not huge, we didn't use it. The hotel's in poor condition. The room and everything in it seemed very old. There was a large flat screen tv in room (wow!) &amp; we did get HBO so there's a plus. The beds were comfy and it was a quiet hotel. The bathroom was small &amp; the tub looked so old, dirty and used. I had no desire to take a shower in it (I can put up with a lot, but I couldn't bring myself to step in that). By the sink, there was a huge hole in the carpet and the carpet itself has seen better days.  The room did have a fridge that worked and we didn't have any problems with.If you're going to Disneyland, there was no shuttle and it's a 15-20 minute drive to the park from here. This hotel is ok for an overnight stay, but longer than that, it's sketchy. At times, I thought some locals lived at this motel....  Would I stay here again? Yes.  Would I want to? NO.More</t>
   </si>
   <si>
+    <t>Ray G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r235432350-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -949,6 +1051,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>armarie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r235370783-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -964,6 +1069,9 @@
     <t>booked 3 non smoking room for this weekend (actually just checked out) and one room that we got smelled cigarette smoke room 217,complain to the front, lady offered room 203 but smell is worst and all she said was they are fully booked and sorry...my sister full bottle of bath and body cologne is empty from frequent spraying...its a good thing were always out... and just stayed to sleep which were already very tired!!!the bathroom has hair in the floor in the side...i'm very unsatisfied with this hotel!!!just an advice to the management: to make sure to check all rooms for smoking and non smoking odor coz there is a reason why people chooses non smoking rooms...More</t>
   </si>
   <si>
+    <t>Sandra M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r235104567-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -988,6 +1096,9 @@
     <t>The beds were comfortable but that's as good as it gets. We got there finger nails and candy balls(I'm guessing whoppers) and cigarette bud underneath beds. Floor had a hole next to fridge. Bathroom was rusty. On top of that we go home to find a charge of 250$ charged to our account. We called back asking why since it was only a one night stay at 73.00. We were told its because we were smoking!!! My husband and I don't even smoke. So now we are being penalized for a horrible job done by the housekeeper for not picking up before we entered the room. Still waiting on issue to be resolved. Person who charged us was a woman named lily..and the guy we spoke to about resolving the issue is named ray. Don't stay here if you planned on gettn ripped off. If any one has info to contact the owners or someone to resolve this immediately please reply. Ty.I forgot to mention jacuzzi was not close to warm..freezing as a matter of fact.More</t>
   </si>
   <si>
+    <t>Gordon K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r217359389-Dixie_Orange_County_Hotel-Stanton_California.html</t>
   </si>
   <si>
@@ -1010,6 +1121,9 @@
   </si>
   <si>
     <t>More</t>
+  </si>
+  <si>
+    <t>A M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33125-d82231-r217250716-Dixie_Orange_County_Hotel-Stanton_California.html</t>
@@ -1520,43 +1634,47 @@
       <c r="A2" t="n">
         <v>3933</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1568,56 +1686,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>3933</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1633,56 +1755,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3933</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>3</v>
@@ -1698,56 +1824,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>3933</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1765,56 +1895,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>3933</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1830,56 +1964,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>3933</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1897,56 +2035,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>3933</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1958,56 +2100,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>3933</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2025,56 +2171,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>3933</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2092,56 +2242,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>3933</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2159,56 +2313,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>3933</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
         <v>133</v>
-      </c>
-      <c r="O12" t="s">
-        <v>124</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2226,56 +2384,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>3933</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2287,56 +2449,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>3933</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="O14" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2348,56 +2514,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>3933</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O15" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2409,56 +2579,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>3933</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2470,56 +2644,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Y16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>3933</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>189</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2537,56 +2715,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>3933</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O18" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2598,56 +2780,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>3933</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2659,56 +2845,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>3933</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2726,56 +2916,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>3933</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -2791,56 +2985,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>3933</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>230</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O22" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2852,56 +3050,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>3933</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2917,56 +3119,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>3933</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>247</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2978,56 +3184,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>3933</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="O25" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3039,56 +3249,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>3933</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3100,56 +3314,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>3933</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>273</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="J27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="L27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O27" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3165,56 +3383,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X27" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>3933</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>280</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="J28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="K28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="L28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3226,56 +3448,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>3933</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>287</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="K29" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="L29" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3287,56 +3513,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="X29" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="Y29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>3933</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>295</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="J30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="K30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="L30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3356,50 +3586,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>3933</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="n">
@@ -3419,41 +3653,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>3933</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>309</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="J32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="K32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="L32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -3472,50 +3710,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>3933</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>315</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>285</v>
+        <v>317</v>
       </c>
       <c r="J33" t="s">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="L33" t="s">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3535,50 +3777,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>290</v>
+        <v>322</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>3933</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="J34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="K34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -3598,50 +3844,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>3933</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -3661,41 +3911,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>3933</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>337</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="L36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
@@ -3724,50 +3978,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>3933</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>343</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="J37" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="K37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="L37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3785,54 +4043,58 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="X37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="Y37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>3933</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>352</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="J38" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O38" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="P38" t="n">
         <v>1</v>
@@ -3854,54 +4116,58 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="X38" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>3933</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -3923,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="X39" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
